--- a/Resources/COnsumption by diff Sectors/By STate/Combined with corrdinates 2023.xlsx
+++ b/Resources/COnsumption by diff Sectors/By STate/Combined with corrdinates 2023.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Petroleum Coke(in Thousand Barrels)</t>
+          <t>Petroleum Liquids(in Thousand Barrels)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
